--- a/artfynd/A 61400-2025 artfynd.xlsx
+++ b/artfynd/A 61400-2025 artfynd.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130645206</v>
+        <v>130645210</v>
       </c>
       <c r="B4" t="n">
-        <v>75345</v>
+        <v>4779</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,21 +915,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6426</v>
+        <v>102306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>667472</v>
+        <v>667485</v>
       </c>
       <c r="R4" t="n">
-        <v>6693360</v>
+        <v>6693332</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -975,11 +975,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Senvuxen</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130645210</v>
+        <v>130645206</v>
       </c>
       <c r="B5" t="n">
-        <v>4779</v>
+        <v>75349</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,21 +1027,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102306</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1051,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>667485</v>
+        <v>667472</v>
       </c>
       <c r="R5" t="n">
-        <v>6693332</v>
+        <v>6693360</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1092,6 +1087,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Senvuxen</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 61400-2025 artfynd.xlsx
+++ b/artfynd/A 61400-2025 artfynd.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130645210</v>
+        <v>130645206</v>
       </c>
       <c r="B4" t="n">
-        <v>4779</v>
+        <v>75349</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,21 +915,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102306</v>
+        <v>6426</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>667485</v>
+        <v>667472</v>
       </c>
       <c r="R4" t="n">
-        <v>6693332</v>
+        <v>6693360</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -975,6 +975,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Senvuxen</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130645206</v>
+        <v>130645210</v>
       </c>
       <c r="B5" t="n">
-        <v>75349</v>
+        <v>4779</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>102306</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1051,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>667472</v>
+        <v>667485</v>
       </c>
       <c r="R5" t="n">
-        <v>6693360</v>
+        <v>6693332</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1087,11 +1092,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Senvuxen</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 61400-2025 artfynd.xlsx
+++ b/artfynd/A 61400-2025 artfynd.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130645206</v>
+        <v>130645210</v>
       </c>
       <c r="B4" t="n">
-        <v>75349</v>
+        <v>4779</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,21 +915,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6426</v>
+        <v>102306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>667472</v>
+        <v>667485</v>
       </c>
       <c r="R4" t="n">
-        <v>6693360</v>
+        <v>6693332</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -975,11 +975,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Senvuxen</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130645210</v>
+        <v>130645206</v>
       </c>
       <c r="B5" t="n">
-        <v>4779</v>
+        <v>75349</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,21 +1027,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102306</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1051,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>667485</v>
+        <v>667472</v>
       </c>
       <c r="R5" t="n">
-        <v>6693332</v>
+        <v>6693360</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1092,6 +1087,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Senvuxen</t>
         </is>
       </c>
       <c r="AD5" t="b">
